--- a/EmscFullStats.xlsx
+++ b/EmscFullStats.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="1504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="1714">
   <si>
     <t xml:space="preserve">Edition</t>
   </si>
@@ -4532,6 +4532,636 @@
   </si>
   <si>
     <t xml:space="preserve">Retrograd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMSC 2501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artem Pivovarov х Klavdia Petrivna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baraban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karetus, Vitorino &amp; iolanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurinda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martti Immonen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martti I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maëlle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure Ryder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some Kind Of Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabio Massimo Falchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FabioMassino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llunr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocketship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fel!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wish I Never Met You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inevitable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keiron xo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jovani x Petunija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perkūnas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilma Karahmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kraj je</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cry for You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benedek Major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Lasagna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biggie Boom Boom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claire Laffut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroshima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smash Into Pieces &amp; LIAMOO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dillo Solo Al Buio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aygün Kazımova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.O.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olly, Angelina Mango, JVLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per due come noi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna Vissi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se Periptosi Pou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sini Sabotage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuori mua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELISSES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaxiki Kardia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuit Incolore feat. Loïc Nottet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On s'écrira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merilin Mälk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tallinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glen Hansard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's No Mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN-S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galisko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Overdose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian Biernat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luka Basi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zick Zack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samanta Tīna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZENOS SEV LĪDZI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARWAN PABLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DÉJÀ VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richie Cox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sylwia Grzeszczak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prawda o nas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markus Schulz &amp; Paula Seling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endless Story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgar Alacran Colotl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel Chinouriri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never Need Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fyr Og Flamme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kærlighed Og Krig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMSC 2502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calema, Sara Correia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respirar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giorgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA CURA PER ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nej'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL LUNÉE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amarene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIRGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stormchaser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEIRON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Know That I'm Here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Vibrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria Loba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bumerang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastián Contarino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love Of Your Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamin Ingrosso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look Who's Laughing Now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matushka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Far As We Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ani Lorak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labirint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINNEAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What They'll Say About Us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myon feat. Nikol Apatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghost Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lola Indigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA REINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebels of The Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iglė</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pašauk mane vardu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRIS HARMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Love You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mun kulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanda Onica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numai în Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phil B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evridiki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeriko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZETAK &amp; Bomba Estéreo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoriontasuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shake My Pain Away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gucci Balenciaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andromache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Flitzani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayden Cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayah i Mery Spolsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Królestwo Kobiet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piotr Niedźwiedź</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piotr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dequine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">До утра (Do utra)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pocket palma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ne mogu biti kao oni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIZADE &amp; BEGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24\/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMSC 2503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DÁNIELFY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orgonafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMA X DANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimitris Vedouras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'avoue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead Man Walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven Procter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maschio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldielocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made Of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leire Martínez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi Nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angel Of My Dreams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misha Miller x Sasha Lopez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Hate That It's True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giorgos Alkaios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX BARSKIH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zamalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oostende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toby Romeo, YouNotUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What It Feels Like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maléna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flashing Lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sivilian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICEGUYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemmér Gemmér</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Patrick Kelly ft. Rakim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duemilaminuti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davina Michelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Won't Let Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">najlepszy dzien w moim zyciu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVSEGDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nena, Luís Trigacheiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À Espera do Fim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Bilbilov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koj Otrov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getter Jaani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vajan hingata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'Algérino, Josas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au soleil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eden Golan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You &amp; I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERMUDU DIVSTURIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlo Gerada, Kevin Paul, Matthew James </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of This World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Chricop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAUSA x JAZEEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WENN DER HIMMEL WEINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sa nu uiti cât te-am iubit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandru Buraga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No quiero flores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drifting Away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mihaela Marinova x Lubo Kirov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vselena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GJan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaip Man Atmylet Tave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murad Arif x Aygün Kazimova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÇALXALA</t>
   </si>
 </sst>
 </file>
@@ -4608,7 +5238,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4619,6 +5249,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -4642,10 +5276,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB719"/>
+  <dimension ref="A1:AB821"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K665" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A691" activeCellId="0" sqref="A691"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C806" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A786" activeCellId="0" sqref="A786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -57549,7 +58183,8 @@
       <c r="Q691" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="R691" s="3" t="b">
+      <c r="R691" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S691" s="1" t="n">
@@ -57570,10 +58205,12 @@
       <c r="X691" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="Y691" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z691" s="3" t="b">
+      <c r="Y691" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z691" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -57629,7 +58266,8 @@
       <c r="Q692" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="R692" s="3" t="b">
+      <c r="R692" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S692" s="1" t="n">
@@ -57650,10 +58288,12 @@
       <c r="X692" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="Y692" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z692" s="3" t="b">
+      <c r="Y692" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z692" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -57709,7 +58349,8 @@
       <c r="Q693" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="R693" s="3" t="b">
+      <c r="R693" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S693" s="1" t="n">
@@ -57730,10 +58371,12 @@
       <c r="X693" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="Y693" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z693" s="3" t="b">
+      <c r="Y693" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z693" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -57789,7 +58432,8 @@
       <c r="Q694" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="R694" s="3" t="b">
+      <c r="R694" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S694" s="1" t="n">
@@ -57810,10 +58454,12 @@
       <c r="X694" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="Y694" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z694" s="3" t="b">
+      <c r="Y694" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z694" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -57869,7 +58515,8 @@
       <c r="Q695" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="R695" s="3" t="b">
+      <c r="R695" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S695" s="1" t="n">
@@ -57890,10 +58537,12 @@
       <c r="X695" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="Y695" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z695" s="3" t="b">
+      <c r="Y695" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z695" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -57949,7 +58598,8 @@
       <c r="Q696" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="R696" s="3" t="b">
+      <c r="R696" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S696" s="1" t="n">
@@ -57970,10 +58620,12 @@
       <c r="X696" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="Y696" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z696" s="3" t="b">
+      <c r="Y696" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z696" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -58029,7 +58681,8 @@
       <c r="Q697" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="R697" s="3" t="b">
+      <c r="R697" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S697" s="1" t="n">
@@ -58050,10 +58703,12 @@
       <c r="X697" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="Y697" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z697" s="3" t="b">
+      <c r="Y697" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z697" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -58109,7 +58764,8 @@
       <c r="Q698" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="R698" s="3" t="b">
+      <c r="R698" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S698" s="1" t="n">
@@ -58130,10 +58786,12 @@
       <c r="X698" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="Y698" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z698" s="3" t="b">
+      <c r="Y698" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z698" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -58189,7 +58847,8 @@
       <c r="Q699" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="R699" s="3" t="b">
+      <c r="R699" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S699" s="1" t="n">
@@ -58210,10 +58869,12 @@
       <c r="X699" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="Y699" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z699" s="3" t="b">
+      <c r="Y699" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z699" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -58269,7 +58930,8 @@
       <c r="Q700" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="R700" s="3" t="b">
+      <c r="R700" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S700" s="1" t="n">
@@ -58290,10 +58952,12 @@
       <c r="X700" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="Y700" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z700" s="3" t="b">
+      <c r="Y700" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z700" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -58340,16 +59004,19 @@
       <c r="Q701" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R701" s="3" t="b">
+      <c r="R701" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S701" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Y701" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z701" s="3" t="b">
+      <c r="Y701" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z701" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -58405,7 +59072,8 @@
       <c r="Q702" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="R702" s="3" t="b">
+      <c r="R702" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S702" s="1" t="n">
@@ -58426,10 +59094,12 @@
       <c r="X702" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="Y702" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z702" s="3" t="b">
+      <c r="Y702" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z702" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -58485,7 +59155,8 @@
       <c r="Q703" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="R703" s="3" t="b">
+      <c r="R703" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S703" s="1" t="n">
@@ -58506,10 +59177,12 @@
       <c r="X703" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="Y703" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z703" s="3" t="b">
+      <c r="Y703" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z703" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -58565,7 +59238,8 @@
       <c r="Q704" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="R704" s="3" t="b">
+      <c r="R704" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S704" s="1" t="n">
@@ -58586,10 +59260,12 @@
       <c r="X704" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="Y704" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z704" s="3" t="b">
+      <c r="Y704" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z704" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -58645,7 +59321,8 @@
       <c r="Q705" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="R705" s="3" t="b">
+      <c r="R705" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S705" s="1" t="n">
@@ -58666,10 +59343,12 @@
       <c r="X705" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="Y705" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z705" s="3" t="b">
+      <c r="Y705" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z705" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -58725,7 +59404,8 @@
       <c r="Q706" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="R706" s="3" t="b">
+      <c r="R706" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S706" s="1" t="n">
@@ -58746,10 +59426,12 @@
       <c r="X706" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="Y706" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z706" s="3" t="b">
+      <c r="Y706" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z706" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -58805,7 +59487,8 @@
       <c r="Q707" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="R707" s="3" t="b">
+      <c r="R707" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S707" s="1" t="n">
@@ -58826,10 +59509,12 @@
       <c r="X707" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="Y707" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z707" s="3" t="b">
+      <c r="Y707" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z707" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -58885,7 +59570,8 @@
       <c r="Q708" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="R708" s="3" t="b">
+      <c r="R708" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S708" s="1" t="n">
@@ -58906,10 +59592,12 @@
       <c r="X708" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="Y708" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z708" s="3" t="b">
+      <c r="Y708" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z708" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -58965,7 +59653,8 @@
       <c r="Q709" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="R709" s="3" t="b">
+      <c r="R709" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S709" s="1" t="n">
@@ -58986,10 +59675,12 @@
       <c r="X709" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="Y709" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z709" s="3" t="b">
+      <c r="Y709" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z709" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -59045,7 +59736,8 @@
       <c r="Q710" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="R710" s="3" t="b">
+      <c r="R710" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S710" s="1" t="n">
@@ -59066,10 +59758,12 @@
       <c r="X710" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="Y710" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z710" s="3" t="b">
+      <c r="Y710" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z710" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -59125,7 +59819,8 @@
       <c r="Q711" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="R711" s="3" t="b">
+      <c r="R711" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="S711" s="1" t="n">
@@ -59146,10 +59841,12 @@
       <c r="X711" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="Y711" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z711" s="3" t="b">
+      <c r="Y711" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z711" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -59199,10 +59896,12 @@
       <c r="X712" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="Y712" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z712" s="3" t="b">
+      <c r="Y712" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z712" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -59252,10 +59951,12 @@
       <c r="X713" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="Y713" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z713" s="3" t="b">
+      <c r="Y713" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z713" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -59305,10 +60006,12 @@
       <c r="X714" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="Y714" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z714" s="3" t="b">
+      <c r="Y714" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z714" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -59358,10 +60061,12 @@
       <c r="X715" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="Y715" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z715" s="3" t="b">
+      <c r="Y715" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z715" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -59411,10 +60116,12 @@
       <c r="X716" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="Y716" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z716" s="3" t="b">
+      <c r="Y716" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z716" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -59464,10 +60171,12 @@
       <c r="X717" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="Y717" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z717" s="3" t="b">
+      <c r="Y717" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z717" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -59517,10 +60226,12 @@
       <c r="X718" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="Y718" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z718" s="3" t="b">
+      <c r="Y718" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z718" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -59570,10 +60281,7535 @@
       <c r="X719" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Y719" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z719" s="3" t="b">
+      <c r="Y719" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z719" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F720" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G720" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H720" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="I720" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J720" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="K720" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L720" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M720" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="N720" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="O720" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="P720" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q720" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R720" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S720" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="T720" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="U720" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="V720" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W720" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="X720" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="Y720" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z720" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F721" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G721" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H721" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="I721" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J721" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="K721" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="L721" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="M721" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="N721" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="O721" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="P721" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q721" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="R721" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S721" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="T721" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="U721" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="V721" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W721" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="X721" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="Y721" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z721" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D722" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F722" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G722" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H722" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="I722" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J722" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="K722" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L722" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M722" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="N722" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="O722" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="P722" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q722" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="R722" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S722" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="T722" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U722" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="V722" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W722" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="X722" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y722" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z722" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C723" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D723" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F723" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G723" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H723" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="I723" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J723" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="K723" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="L723" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M723" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="N723" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="O723" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="P723" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q723" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R723" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S723" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="T723" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U723" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="V723" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W723" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="X723" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="Y723" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z723" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A724" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D724" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E724" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F724" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G724" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H724" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="I724" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J724" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="K724" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L724" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M724" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="N724" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="O724" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="P724" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q724" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="R724" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S724" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="T724" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U724" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="V724" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="W724" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="X724" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="Y724" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z724" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A725" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C725" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F725" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G725" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H725" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="I725" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J725" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="K725" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L725" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M725" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="N725" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="O725" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="P725" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q725" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="R725" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S725" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="T725" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="U725" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="V725" s="1" t="n">
+        <v>-4</v>
+      </c>
+      <c r="W725" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="X725" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="Y725" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z725" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D726" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F726" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G726" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H726" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="I726" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J726" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="K726" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="L726" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="M726" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="N726" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="O726" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="P726" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q726" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R726" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S726" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="T726" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="U726" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V726" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="W726" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="X726" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="Y726" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z726" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A727" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D727" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E727" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F727" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G727" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H727" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="I727" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J727" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="K727" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L727" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M727" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="N727" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="O727" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="P727" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q727" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R727" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S727" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="T727" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="U727" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V727" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="W727" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="X727" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y727" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z727" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A728" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D728" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F728" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G728" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H728" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="I728" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J728" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="K728" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="L728" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M728" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="N728" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O728" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="P728" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q728" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R728" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S728" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T728" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="U728" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="V728" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W728" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="X728" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y728" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z728" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D729" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E729" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F729" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G729" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H729" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="I729" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J729" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="K729" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L729" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M729" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="N729" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O729" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="P729" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q729" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="R729" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S729" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="T729" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U729" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="V729" s="1" t="n">
+        <v>-7</v>
+      </c>
+      <c r="W729" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="X729" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y729" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z729" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D730" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E730" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F730" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G730" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="H730" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="I730" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J730" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="K730" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="L730" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="M730" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="N730" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="O730" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="P730" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q730" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="R730" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S730" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T730" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="U730" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V730" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W730" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="X730" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="Y730" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z730" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A731" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E731" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F731" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G731" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="H731" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="I731" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J731" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="K731" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="L731" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="M731" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="N731" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="O731" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="P731" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q731" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="R731" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S731" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="T731" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U731" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="V731" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W731" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="X731" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y731" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z731" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A732" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D732" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E732" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F732" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G732" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="H732" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="I732" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J732" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="K732" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="L732" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="M732" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="N732" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O732" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="P732" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q732" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="R732" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S732" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="T732" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="U732" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="V732" s="1" t="n">
+        <v>-9</v>
+      </c>
+      <c r="W732" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="X732" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y732" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z732" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F733" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G733" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H733" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="I733" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J733" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="K733" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="L733" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M733" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="N733" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O733" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="P733" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q733" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="R733" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S733" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="T733" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="U733" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="V733" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W733" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="X733" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="Y733" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z733" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A734" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E734" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F734" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G734" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="H734" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="K734" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L734" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M734" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="N734" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="O734" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q734" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R734" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S734" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y734" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z734" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E735" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F735" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G735" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="H735" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="I735" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="J735" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="K735" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L735" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="M735" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="N735" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O735" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="P735" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q735" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="R735" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S735" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="T735" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U735" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="V735" s="1" t="n">
+        <v>-4</v>
+      </c>
+      <c r="W735" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="X735" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y735" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z735" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E736" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F736" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G736" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="H736" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="I736" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J736" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="K736" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L736" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M736" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="N736" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="O736" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="P736" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q736" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="R736" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S736" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="T736" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="U736" s="1" t="n">
+        <v>-6</v>
+      </c>
+      <c r="V736" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="W736" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="X736" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y736" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z736" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E737" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F737" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G737" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="H737" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="I737" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J737" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="K737" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L737" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M737" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="N737" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O737" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="P737" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q737" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="R737" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S737" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="T737" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U737" s="1" t="n">
+        <v>-23</v>
+      </c>
+      <c r="V737" s="1" t="n">
+        <v>-13</v>
+      </c>
+      <c r="W737" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="X737" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="Y737" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z737" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E738" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F738" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G738" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H738" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="I738" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J738" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="K738" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L738" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M738" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="N738" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="O738" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="P738" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q738" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="R738" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S738" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="T738" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="U738" s="1" t="n">
+        <v>-11</v>
+      </c>
+      <c r="V738" s="1" t="n">
+        <v>-11</v>
+      </c>
+      <c r="W738" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="X738" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y738" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z738" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A739" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E739" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F739" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G739" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H739" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="I739" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J739" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="K739" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="L739" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="M739" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="N739" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O739" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P739" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q739" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R739" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S739" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T739" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U739" s="1" t="n">
+        <v>-7</v>
+      </c>
+      <c r="V739" s="1" t="n">
+        <v>-9</v>
+      </c>
+      <c r="W739" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="X739" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y739" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z739" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A740" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E740" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F740" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G740" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H740" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="I740" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J740" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="K740" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L740" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M740" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="N740" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="O740" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="P740" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q740" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R740" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S740" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="T740" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="U740" s="1" t="n">
+        <v>-12</v>
+      </c>
+      <c r="V740" s="1" t="n">
+        <v>-13</v>
+      </c>
+      <c r="W740" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="X740" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="Y740" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z740" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A741" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E741" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F741" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G741" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="H741" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="I741" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J741" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="K741" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="L741" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="M741" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="N741" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="O741" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="P741" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q741" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="R741" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S741" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T741" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U741" s="1" t="n">
+        <v>-12</v>
+      </c>
+      <c r="V741" s="1" t="n">
+        <v>-12</v>
+      </c>
+      <c r="W741" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="X741" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y741" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z741" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A742" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E742" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F742" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G742" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="H742" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="I742" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J742" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="K742" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L742" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M742" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="N742" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O742" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="P742" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q742" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R742" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S742" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="T742" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U742" s="1" t="n">
+        <v>-15</v>
+      </c>
+      <c r="V742" s="1" t="n">
+        <v>-14</v>
+      </c>
+      <c r="W742" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X742" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y742" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z742" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A743" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E743" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F743" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G743" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="H743" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="I743" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J743" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="K743" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L743" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M743" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="N743" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O743" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="P743" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q743" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="R743" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S743" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="T743" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U743" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="V743" s="1" t="n">
+        <v>-14</v>
+      </c>
+      <c r="W743" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="X743" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y743" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z743" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E744" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F744" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G744" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H744" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I744" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="J744" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="K744" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L744" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M744" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="N744" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O744" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="P744" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q744" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="R744" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S744" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T744" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U744" s="1" t="n">
+        <v>-13</v>
+      </c>
+      <c r="V744" s="1" t="n">
+        <v>-13</v>
+      </c>
+      <c r="W744" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="X744" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y744" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z744" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E745" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F745" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I745" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="J745" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="K745" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L745" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="P745" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R745" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T745" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="W745" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X745" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y745" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z745" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E746" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F746" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I746" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J746" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="K746" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="L746" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="P746" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R746" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T746" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="W746" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X746" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y746" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z746" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A747" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E747" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F747" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I747" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J747" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="K747" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L747" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="P747" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="R747" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T747" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W747" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X747" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y747" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z747" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A748" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E748" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F748" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I748" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="J748" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="K748" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="L748" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="P748" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="R748" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T748" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W748" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="X748" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y748" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z748" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E749" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F749" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I749" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="J749" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="K749" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L749" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="P749" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="R749" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T749" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W749" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X749" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y749" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z749" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E750" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F750" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I750" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="J750" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="K750" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L750" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P750" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="R750" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T750" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="W750" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="X750" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y750" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z750" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C751" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E751" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F751" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I751" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J751" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="K751" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L751" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="P751" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R751" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T751" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W751" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="X751" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y751" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z751" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A752" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E752" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F752" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I752" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="J752" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="K752" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="L752" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="P752" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R752" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T752" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="W752" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X752" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y752" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z752" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E753" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F753" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I753" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J753" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="K753" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L753" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P753" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="R753" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T753" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W753" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X753" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y753" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z753" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C754" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E754" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F754" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G754" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H754" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="I754" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J754" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="K754" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L754" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M754" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="N754" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O754" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="P754" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q754" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R754" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S754" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="T754" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="U754" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="V754" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W754" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="X754" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="Y754" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z754" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A755" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C755" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E755" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F755" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G755" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H755" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="I755" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J755" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="K755" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L755" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M755" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="N755" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="O755" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="P755" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q755" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="R755" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S755" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T755" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U755" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="V755" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W755" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="X755" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="Y755" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z755" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C756" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D756" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E756" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F756" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G756" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H756" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="I756" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J756" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="K756" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="L756" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="M756" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="N756" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="O756" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="P756" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q756" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R756" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S756" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="T756" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="U756" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="V756" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W756" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="X756" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="Y756" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z756" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A757" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D757" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E757" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F757" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G757" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H757" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="I757" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J757" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="K757" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L757" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M757" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="N757" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="O757" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="P757" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q757" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="R757" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S757" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="T757" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U757" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="V757" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W757" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="X757" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y757" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z757" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A758" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E758" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F758" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G758" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H758" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="I758" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J758" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="K758" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L758" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="M758" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="N758" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="O758" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="P758" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q758" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R758" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S758" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="T758" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U758" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V758" s="1" t="n">
+        <v>-4</v>
+      </c>
+      <c r="W758" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="X758" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="Y758" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z758" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A759" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E759" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F759" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G759" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H759" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="I759" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J759" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="K759" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L759" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M759" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="N759" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="O759" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="P759" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q759" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="R759" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S759" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T759" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U759" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="V759" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W759" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="X759" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="Y759" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z759" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A760" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E760" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F760" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G760" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H760" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="I760" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J760" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="K760" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="L760" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="M760" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="N760" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="O760" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="P760" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q760" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="R760" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S760" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="T760" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="U760" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V760" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="W760" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="X760" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="Y760" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z760" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A761" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C761" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D761" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E761" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F761" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G761" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H761" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="I761" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J761" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="K761" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="L761" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="M761" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="N761" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O761" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="P761" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q761" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R761" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S761" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="T761" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U761" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="V761" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W761" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="X761" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y761" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z761" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C762" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D762" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E762" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F762" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G762" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H762" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="I762" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J762" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="K762" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="L762" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M762" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="N762" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="O762" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="P762" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q762" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="R762" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S762" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T762" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="U762" s="1" t="n">
+        <v>-4</v>
+      </c>
+      <c r="V762" s="1" t="n">
+        <v>-6</v>
+      </c>
+      <c r="W762" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="X762" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="Y762" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z762" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A763" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D763" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E763" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F763" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G763" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H763" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="I763" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J763" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="K763" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="L763" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="M763" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="N763" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="O763" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="P763" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q763" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R763" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S763" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="T763" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="U763" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="V763" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="W763" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="X763" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="Y763" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z763" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A764" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D764" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E764" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F764" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G764" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="H764" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="I764" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J764" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="K764" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="L764" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="M764" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="N764" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="O764" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="P764" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q764" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="R764" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S764" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="T764" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U764" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="V764" s="1" t="n">
+        <v>-9</v>
+      </c>
+      <c r="W764" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="X764" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="Y764" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z764" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A765" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E765" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F765" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G765" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="H765" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="I765" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J765" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="K765" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="L765" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="M765" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="N765" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="O765" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="P765" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q765" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="R765" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S765" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="T765" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U765" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V765" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W765" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="X765" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="Y765" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z765" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C766" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D766" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E766" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F766" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G766" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="H766" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="I766" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J766" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="K766" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L766" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M766" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="N766" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="O766" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P766" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q766" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R766" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S766" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="T766" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="U766" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="V766" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="W766" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="X766" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y766" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z766" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A767" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D767" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E767" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F767" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G767" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H767" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="K767" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L767" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M767" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="N767" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O767" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q767" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="R767" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S767" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y767" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z767" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A768" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C768" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D768" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E768" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F768" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G768" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="H768" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="I768" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J768" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="K768" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="L768" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="M768" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="N768" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="O768" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="P768" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q768" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R768" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S768" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="T768" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="U768" s="1" t="n">
+        <v>-14</v>
+      </c>
+      <c r="V768" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W768" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="X768" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y768" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z768" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D769" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E769" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F769" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G769" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="H769" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="I769" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J769" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="K769" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L769" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="M769" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="N769" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O769" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="P769" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q769" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="R769" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S769" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="T769" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U769" s="1" t="n">
+        <v>-13</v>
+      </c>
+      <c r="V769" s="1" t="n">
+        <v>-11</v>
+      </c>
+      <c r="W769" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="X769" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="Y769" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z769" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A770" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C770" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E770" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F770" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G770" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="H770" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="I770" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J770" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="K770" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L770" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M770" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="N770" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="O770" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="P770" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q770" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="R770" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S770" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="T770" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="U770" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V770" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W770" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="X770" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y770" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z770" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A771" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E771" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F771" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G771" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="H771" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="I771" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J771" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="K771" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L771" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M771" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="N771" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O771" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="P771" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q771" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R771" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S771" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="T771" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U771" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="V771" s="1" t="n">
+        <v>-7</v>
+      </c>
+      <c r="W771" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="X771" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y771" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z771" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A772" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E772" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F772" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G772" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H772" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="I772" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J772" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="K772" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="L772" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M772" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="N772" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O772" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="P772" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q772" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="R772" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S772" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="T772" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="U772" s="1" t="n">
+        <v>-21</v>
+      </c>
+      <c r="V772" s="1" t="n">
+        <v>-13</v>
+      </c>
+      <c r="W772" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="X772" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y772" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z772" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C773" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D773" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E773" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F773" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G773" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H773" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="I773" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J773" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="K773" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L773" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M773" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="N773" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O773" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="P773" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q773" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="R773" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S773" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="T773" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U773" s="1" t="n">
+        <v>-9</v>
+      </c>
+      <c r="V773" s="1" t="n">
+        <v>-9</v>
+      </c>
+      <c r="W773" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="X773" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y773" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z773" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C774" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E774" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F774" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G774" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H774" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="I774" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J774" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="K774" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L774" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M774" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N774" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O774" s="1" t="n">
+        <v>-15</v>
+      </c>
+      <c r="P774" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q774" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="R774" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S774" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T774" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="U774" s="1" t="n">
+        <v>-20</v>
+      </c>
+      <c r="V774" s="1" t="n">
+        <v>-12</v>
+      </c>
+      <c r="W774" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="X774" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y774" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z774" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A775" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C775" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="E775" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F775" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G775" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="H775" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="I775" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J775" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="K775" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L775" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M775" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="N775" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="O775" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="P775" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q775" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="R775" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S775" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="T775" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U775" s="1" t="n">
+        <v>-16</v>
+      </c>
+      <c r="V775" s="1" t="n">
+        <v>-12</v>
+      </c>
+      <c r="W775" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X775" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y775" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z775" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A776" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E776" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F776" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G776" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="H776" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="I776" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="J776" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="K776" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L776" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="M776" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="N776" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="O776" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P776" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q776" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="R776" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S776" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="T776" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U776" s="1" t="n">
+        <v>-19</v>
+      </c>
+      <c r="V776" s="1" t="n">
+        <v>-11</v>
+      </c>
+      <c r="W776" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="X776" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y776" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z776" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D777" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E777" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F777" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G777" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="H777" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="I777" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J777" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="K777" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L777" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M777" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="N777" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O777" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="P777" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q777" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="R777" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S777" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T777" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="U777" s="1" t="n">
+        <v>-37</v>
+      </c>
+      <c r="V777" s="1" t="n">
+        <v>-16</v>
+      </c>
+      <c r="W777" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="X777" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y777" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z777" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A778" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C778" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E778" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F778" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G778" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H778" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="I778" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="J778" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="K778" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="L778" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="M778" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="N778" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O778" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P778" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q778" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R778" s="1" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="S778" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T778" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U778" s="1" t="n">
+        <v>-20</v>
+      </c>
+      <c r="V778" s="1" t="n">
+        <v>-13</v>
+      </c>
+      <c r="W778" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="X778" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y778" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z778" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F779" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I779" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="J779" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="K779" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="L779" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="P779" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R779" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T779" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="W779" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="X779" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y779" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z779" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E780" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F780" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I780" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J780" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="K780" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L780" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="P780" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="R780" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T780" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W780" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X780" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y780" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z780" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C781" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E781" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F781" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I781" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="J781" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="K781" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L781" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="P781" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="R781" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T781" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W781" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="X781" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y781" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z781" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D782" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E782" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F782" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I782" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="J782" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="K782" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="L782" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="P782" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R782" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T782" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="W782" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X782" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y782" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z782" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D783" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F783" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I783" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J783" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="K783" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L783" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P783" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R783" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T783" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W783" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="X783" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y783" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z783" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D784" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E784" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F784" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I784" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="J784" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="K784" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L784" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="P784" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="R784" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T784" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W784" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X784" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y784" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z784" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A785" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D785" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E785" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F785" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I785" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="J785" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K785" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L785" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="P785" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R785" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="T785" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W785" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X785" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y785" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z785" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A786" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D786" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E786" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F786" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G786" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H786" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="I786" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J786" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="K786" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="L786" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M786" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="N786" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="O786" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="P786" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q786" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R786" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S786" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="T786" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="U786" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="V786" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W786" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="X786" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="Y786" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z786" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C787" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D787" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E787" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F787" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G787" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H787" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="I787" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J787" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="K787" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L787" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="M787" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="N787" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="O787" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="P787" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q787" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R787" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S787" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="T787" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="U787" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="V787" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W787" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="X787" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y787" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z787" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A788" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="E788" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F788" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G788" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H788" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="I788" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J788" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="K788" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="L788" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="M788" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="N788" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O788" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="P788" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q788" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="R788" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S788" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="T788" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="U788" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="V788" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W788" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="X788" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y788" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z788" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A789" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D789" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E789" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F789" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G789" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H789" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="I789" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J789" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="K789" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L789" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M789" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="N789" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="O789" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="P789" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q789" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R789" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S789" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="T789" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="U789" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="V789" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W789" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="X789" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="Y789" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z789" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D790" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F790" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G790" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H790" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="I790" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J790" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="K790" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L790" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M790" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="N790" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="O790" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="P790" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q790" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="R790" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S790" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="T790" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="U790" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="V790" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W790" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="X790" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="Y790" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z790" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A791" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D791" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E791" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F791" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G791" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H791" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="I791" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J791" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="K791" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L791" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M791" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="N791" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="O791" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="P791" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q791" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="R791" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S791" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T791" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="U791" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="V791" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W791" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="X791" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y791" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z791" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D792" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E792" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F792" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G792" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H792" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="I792" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J792" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="K792" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="L792" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M792" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="N792" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="O792" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="P792" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q792" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R792" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S792" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T792" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="U792" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="V792" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="W792" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="X792" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y792" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z792" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A793" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C793" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D793" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E793" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F793" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G793" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H793" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="I793" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J793" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="K793" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L793" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M793" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="N793" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="O793" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P793" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q793" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="R793" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S793" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="T793" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U793" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="V793" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W793" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="X793" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y793" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z793" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A794" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D794" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E794" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F794" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G794" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H794" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="I794" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J794" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="K794" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="L794" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="M794" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="N794" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O794" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="P794" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q794" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="R794" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S794" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T794" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U794" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="V794" s="1" t="n">
+        <v>-4</v>
+      </c>
+      <c r="W794" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="X794" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y794" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z794" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A795" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C795" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D795" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E795" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F795" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G795" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H795" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="I795" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J795" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="K795" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="L795" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="M795" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="N795" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O795" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="P795" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q795" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R795" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S795" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T795" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="U795" s="1" t="n">
+        <v>-38</v>
+      </c>
+      <c r="V795" s="1" t="n">
+        <v>-9</v>
+      </c>
+      <c r="W795" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="X795" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="Y795" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z795" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A796" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C796" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D796" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E796" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F796" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G796" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="H796" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="I796" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J796" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="K796" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L796" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M796" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="N796" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="O796" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="P796" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q796" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="R796" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S796" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="T796" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U796" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V796" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="W796" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="X796" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y796" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z796" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A797" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D797" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E797" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F797" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G797" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="H797" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="I797" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J797" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="K797" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L797" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="M797" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="N797" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O797" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="P797" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q797" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="R797" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S797" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="T797" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="U797" s="1" t="n">
+        <v>-13</v>
+      </c>
+      <c r="V797" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="W797" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="X797" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y797" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z797" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A798" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D798" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E798" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F798" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G798" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="H798" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="I798" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J798" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="K798" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L798" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M798" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="N798" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O798" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="P798" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q798" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R798" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S798" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="T798" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U798" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="V798" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="W798" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="X798" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y798" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z798" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A799" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D799" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F799" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G799" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H799" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="I799" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J799" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="K799" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="L799" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="M799" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="N799" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="O799" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="P799" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q799" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="R799" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S799" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="T799" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="U799" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V799" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W799" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="X799" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="Y799" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z799" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A800" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D800" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E800" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F800" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G800" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="H800" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="I800" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J800" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="K800" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="L800" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="M800" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="N800" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O800" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="P800" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q800" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="R800" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S800" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="T800" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U800" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V800" s="1" t="n">
+        <v>-6</v>
+      </c>
+      <c r="W800" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="X800" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="Y800" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z800" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A801" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D801" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E801" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F801" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G801" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="H801" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="I801" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J801" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="K801" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="L801" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="M801" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="N801" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="O801" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="P801" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q801" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="R801" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S801" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="T801" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="U801" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="V801" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="W801" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="X801" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="Y801" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z801" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A802" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D802" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E802" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F802" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G802" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="H802" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="I802" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J802" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="K802" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="L802" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="M802" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="N802" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O802" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P802" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q802" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="R802" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S802" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="T802" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U802" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V802" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W802" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="X802" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="Y802" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z802" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A803" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C803" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D803" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E803" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F803" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G803" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="H803" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="I803" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J803" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="K803" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L803" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="M803" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="N803" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="O803" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P803" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q803" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R803" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S803" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="T803" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U803" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V803" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W803" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="X803" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y803" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z803" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A804" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D804" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E804" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F804" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G804" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H804" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="I804" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J804" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="K804" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L804" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M804" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="N804" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="O804" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P804" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q804" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R804" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S804" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="T804" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U804" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="V804" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W804" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="X804" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="Y804" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z804" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A805" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C805" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D805" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F805" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G805" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H805" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="I805" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J805" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="K805" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L805" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M805" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="N805" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O805" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P805" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q805" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="R805" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S805" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="T805" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U805" s="1" t="n">
+        <v>-16</v>
+      </c>
+      <c r="V805" s="1" t="n">
+        <v>-15</v>
+      </c>
+      <c r="W805" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="X805" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="Y805" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z805" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A806" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D806" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F806" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G806" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H806" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="I806" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="J806" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="K806" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="L806" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="M806" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="N806" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="O806" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P806" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q806" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="R806" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S806" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="T806" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U806" s="1" t="n">
+        <v>-6</v>
+      </c>
+      <c r="V806" s="1" t="n">
+        <v>-9</v>
+      </c>
+      <c r="W806" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="X806" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y806" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z806" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A807" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D807" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F807" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G807" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="H807" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="I807" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="J807" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="K807" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L807" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="M807" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="N807" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="O807" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="P807" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q807" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="R807" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S807" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="T807" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U807" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V807" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="W807" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="X807" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y807" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z807" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A808" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D808" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F808" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G808" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="H808" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="K808" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L808" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M808" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="N808" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="O808" s="1" t="n">
+        <v>-9</v>
+      </c>
+      <c r="Q808" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="R808" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S808" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y808" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z808" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A809" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C809" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D809" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F809" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G809" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="H809" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="I809" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J809" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="K809" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="L809" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M809" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="N809" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O809" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="P809" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q809" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R809" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S809" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="T809" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U809" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="V809" s="1" t="n">
+        <v>-13</v>
+      </c>
+      <c r="W809" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="X809" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y809" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z809" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A810" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D810" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F810" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G810" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H810" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="I810" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J810" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="K810" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="L810" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="M810" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="N810" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="O810" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="P810" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q810" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="R810" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S810" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="T810" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="U810" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="V810" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="W810" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="X810" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y810" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z810" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A811" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D811" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F811" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I811" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="J811" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="K811" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L811" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="P811" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R811" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T811" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="W811" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="X811" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y811" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z811" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D812" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F812" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I812" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J812" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="K812" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L812" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="P812" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="R812" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T812" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W812" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X812" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y812" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z812" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D813" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F813" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I813" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="J813" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="K813" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L813" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="P813" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="R813" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T813" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="W813" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="X813" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y813" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z813" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A814" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C814" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D814" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E814" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F814" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I814" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="J814" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="K814" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="L814" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="P814" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R814" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T814" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="W814" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="X814" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y814" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z814" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D815" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E815" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F815" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I815" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="J815" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K815" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L815" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P815" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="R815" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T815" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W815" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X815" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y815" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z815" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C816" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D816" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E816" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F816" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I816" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="J816" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="K816" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="L816" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P816" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="R816" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T816" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="W816" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="X816" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y816" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z816" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A817" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D817" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E817" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F817" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I817" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J817" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="K817" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="L817" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="P817" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="R817" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T817" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="W817" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="X817" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y817" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z817" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D818" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E818" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F818" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I818" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="J818" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="K818" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L818" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P818" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="R818" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T818" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="W818" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="X818" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y818" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z818" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D819" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E819" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F819" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I819" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="J819" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="K819" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L819" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="P819" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="R819" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T819" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W819" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="X819" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y819" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z819" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D820" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F820" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I820" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="J820" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="K820" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="L820" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="P820" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R820" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T820" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W820" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X820" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y820" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z820" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C821" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D821" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E821" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F821" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I821" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="J821" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="K821" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L821" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="P821" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="R821" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T821" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W821" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="X821" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y821" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z821" s="4" t="b">
         <v>0</v>
       </c>
     </row>
